--- a/R/2017_10_04_Checked_SSN_Deep (-25m to 95m)_newcleaned.xlsx
+++ b/R/2017_10_04_Checked_SSN_Deep (-25m to 95m)_newcleaned.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeozy\Documents\Yale-NUS\Y3S1\UROPS\UROPS\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{46BED979-15C7-4AD6-BE07-6AD83D06382E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C25A0A45-1FE0-4EA9-9A19-504F18484EE7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21268" windowHeight="7266" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="SSN" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SSN!$A$1:$T$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SSN!$A$1:$T$236</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="1010">
   <si>
     <t>Date/Time</t>
   </si>
@@ -8979,12 +8979,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T235"/>
+  <dimension ref="A1:T236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="I130" sqref="I130"/>
+      <selection pane="bottomLeft" activeCell="L234" sqref="L234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="16.100000000000001" x14ac:dyDescent="0.35"/>
@@ -14167,12 +14167,12 @@
       <c r="E157" s="32">
         <v>4</v>
       </c>
-      <c r="F157" s="41">
-        <v>5070</v>
+      <c r="F157" s="25">
+        <v>5000</v>
       </c>
       <c r="G157" s="41">
         <f t="shared" ref="G157:G187" si="4">F158-F157</f>
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="H157" s="42" t="s">
         <v>912</v>
@@ -14199,11 +14199,11 @@
         <v>4</v>
       </c>
       <c r="F158" s="41">
-        <v>5080</v>
+        <v>5070</v>
       </c>
       <c r="G158" s="41">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="H158" s="42" t="s">
         <v>57</v>
@@ -14230,11 +14230,11 @@
         <v>4</v>
       </c>
       <c r="F159" s="41">
-        <v>5160</v>
+        <v>5080</v>
       </c>
       <c r="G159" s="41">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="H159" s="42" t="s">
         <v>912</v>
@@ -14261,11 +14261,11 @@
         <v>4</v>
       </c>
       <c r="F160" s="41">
-        <v>5169</v>
+        <v>5160</v>
       </c>
       <c r="G160" s="41">
         <f t="shared" si="4"/>
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="H160" s="42" t="s">
         <v>908</v>
@@ -14301,11 +14301,11 @@
         <v>4</v>
       </c>
       <c r="F161" s="41">
-        <v>5363</v>
+        <v>5169</v>
       </c>
       <c r="G161" s="41">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="H161" s="42" t="s">
         <v>912</v>
@@ -14332,11 +14332,11 @@
         <v>4</v>
       </c>
       <c r="F162" s="41">
-        <v>5379</v>
+        <v>5363</v>
       </c>
       <c r="G162" s="41">
         <f t="shared" si="4"/>
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="H162" s="42" t="s">
         <v>908</v>
@@ -14372,11 +14372,11 @@
         <v>4</v>
       </c>
       <c r="F163" s="41">
-        <v>5416</v>
+        <v>5379</v>
       </c>
       <c r="G163" s="41">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H163" s="42" t="s">
         <v>912</v>
@@ -14403,11 +14403,11 @@
         <v>4</v>
       </c>
       <c r="F164" s="41">
-        <v>5445</v>
+        <v>5416</v>
       </c>
       <c r="G164" s="41">
         <f t="shared" si="4"/>
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="H164" s="42" t="s">
         <v>908</v>
@@ -14443,11 +14443,11 @@
         <v>4</v>
       </c>
       <c r="F165" s="41">
-        <v>5534</v>
+        <v>5445</v>
       </c>
       <c r="G165" s="41">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="H165" s="42" t="s">
         <v>912</v>
@@ -14474,11 +14474,11 @@
         <v>4</v>
       </c>
       <c r="F166" s="41">
-        <v>5548</v>
+        <v>5534</v>
       </c>
       <c r="G166" s="41">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H166" s="42" t="s">
         <v>908</v>
@@ -14514,11 +14514,11 @@
         <v>4</v>
       </c>
       <c r="F167" s="41">
-        <v>5628</v>
+        <v>5548</v>
       </c>
       <c r="G167" s="41">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="H167" s="42" t="s">
         <v>912</v>
@@ -14545,11 +14545,11 @@
         <v>4</v>
       </c>
       <c r="F168" s="41">
-        <v>5638</v>
+        <v>5628</v>
       </c>
       <c r="G168" s="41">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="H168" s="42" t="s">
         <v>908</v>
@@ -14585,11 +14585,11 @@
         <v>4</v>
       </c>
       <c r="F169" s="41">
-        <v>5709</v>
+        <v>5638</v>
       </c>
       <c r="G169" s="41">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="H169" s="42" t="s">
         <v>912</v>
@@ -14616,11 +14616,11 @@
         <v>4</v>
       </c>
       <c r="F170" s="41">
-        <v>5712</v>
+        <v>5709</v>
       </c>
       <c r="G170" s="41">
         <f t="shared" si="4"/>
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="H170" s="42" t="s">
         <v>908</v>
@@ -14656,11 +14656,11 @@
         <v>4</v>
       </c>
       <c r="F171" s="41">
-        <v>5793</v>
+        <v>5712</v>
       </c>
       <c r="G171" s="41">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="H171" s="42" t="s">
         <v>912</v>
@@ -14687,11 +14687,11 @@
         <v>4</v>
       </c>
       <c r="F172" s="41">
-        <v>5802</v>
+        <v>5793</v>
       </c>
       <c r="G172" s="41">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="H172" s="42" t="s">
         <v>908</v>
@@ -14727,11 +14727,11 @@
         <v>4</v>
       </c>
       <c r="F173" s="41">
-        <v>5922</v>
+        <v>5802</v>
       </c>
       <c r="G173" s="41">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="H173" s="42" t="s">
         <v>912</v>
@@ -14758,11 +14758,11 @@
         <v>4</v>
       </c>
       <c r="F174" s="41">
-        <v>5930</v>
+        <v>5922</v>
       </c>
       <c r="G174" s="41">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="H174" s="42" t="s">
         <v>908</v>
@@ -14798,11 +14798,11 @@
         <v>4</v>
       </c>
       <c r="F175" s="41">
-        <v>6060</v>
+        <v>5930</v>
       </c>
       <c r="G175" s="41">
         <f t="shared" si="4"/>
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="H175" s="42" t="s">
         <v>912</v>
@@ -14829,11 +14829,11 @@
         <v>4</v>
       </c>
       <c r="F176" s="41">
-        <v>6145</v>
+        <v>6060</v>
       </c>
       <c r="G176" s="41">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="H176" s="42" t="s">
         <v>75</v>
@@ -14860,11 +14860,11 @@
         <v>4</v>
       </c>
       <c r="F177" s="41">
-        <v>6164</v>
+        <v>6145</v>
       </c>
       <c r="G177" s="41">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H177" s="42" t="s">
         <v>912</v>
@@ -14891,11 +14891,11 @@
         <v>4</v>
       </c>
       <c r="F178" s="41">
-        <v>6176</v>
+        <v>6164</v>
       </c>
       <c r="G178" s="41">
         <f t="shared" si="4"/>
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="H178" s="42" t="s">
         <v>908</v>
@@ -14931,11 +14931,11 @@
         <v>4</v>
       </c>
       <c r="F179" s="41">
-        <v>6321</v>
+        <v>6176</v>
       </c>
       <c r="G179" s="41">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="H179" s="42" t="s">
         <v>912</v>
@@ -14962,11 +14962,11 @@
         <v>4</v>
       </c>
       <c r="F180" s="41">
-        <v>6329</v>
+        <v>6321</v>
       </c>
       <c r="G180" s="41">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="H180" s="42" t="s">
         <v>908</v>
@@ -15002,11 +15002,11 @@
         <v>4</v>
       </c>
       <c r="F181" s="41">
-        <v>6430</v>
+        <v>6329</v>
       </c>
       <c r="G181" s="41">
         <f t="shared" si="4"/>
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="H181" s="42" t="s">
         <v>71</v>
@@ -15032,11 +15032,11 @@
         <v>4</v>
       </c>
       <c r="F182" s="41">
-        <v>6573</v>
+        <v>6430</v>
       </c>
       <c r="G182" s="41">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="H182" s="42" t="s">
         <v>912</v>
@@ -15062,11 +15062,11 @@
         <v>4</v>
       </c>
       <c r="F183" s="41">
-        <v>6585</v>
+        <v>6573</v>
       </c>
       <c r="G183" s="41">
         <f t="shared" si="4"/>
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="H183" s="42" t="s">
         <v>908</v>
@@ -15102,11 +15102,11 @@
         <v>4</v>
       </c>
       <c r="F184" s="41">
-        <v>6832</v>
+        <v>6585</v>
       </c>
       <c r="G184" s="41">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="H184" s="42" t="s">
         <v>912</v>
@@ -15131,12 +15131,12 @@
       <c r="E185" s="32">
         <v>4</v>
       </c>
-      <c r="F185" s="43">
-        <v>6848</v>
+      <c r="F185" s="41">
+        <v>6832</v>
       </c>
       <c r="G185" s="43">
         <f t="shared" si="4"/>
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="H185" s="42" t="s">
         <v>908</v>
@@ -15172,11 +15172,11 @@
         <v>4</v>
       </c>
       <c r="F186" s="43">
-        <v>6936</v>
+        <v>6848</v>
       </c>
       <c r="G186" s="43">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="H186" s="42" t="s">
         <v>912</v>
@@ -15202,11 +15202,11 @@
         <v>4</v>
       </c>
       <c r="F187" s="43">
-        <v>6948</v>
+        <v>6936</v>
       </c>
       <c r="G187" s="43">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="H187" s="42" t="s">
         <v>55</v>
@@ -15231,56 +15231,46 @@
       <c r="E188" s="32">
         <v>4</v>
       </c>
-      <c r="F188" s="46">
+      <c r="F188" s="43">
+        <v>6948</v>
+      </c>
+      <c r="G188" s="43">
+        <f t="shared" ref="G158:G188" si="5">F189-F188</f>
+        <v>52</v>
+      </c>
+      <c r="H188" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I188" s="42"/>
+      <c r="J188" s="42"/>
+      <c r="K188" s="42"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A189" s="24">
+        <v>43012</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="C189" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="D189" s="32" t="s">
+        <v>952</v>
+      </c>
+      <c r="E189" s="32">
+        <v>4</v>
+      </c>
+      <c r="F189" s="46">
         <v>7000</v>
       </c>
-      <c r="G188" s="44"/>
-      <c r="H188" s="45" t="s">
+      <c r="G189" s="44"/>
+      <c r="H189" s="45" t="s">
         <v>912</v>
       </c>
-      <c r="I188" s="45"/>
-      <c r="J188" s="45"/>
-      <c r="K188" s="45"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A189" s="24" t="s">
-        <v>957</v>
-      </c>
-      <c r="B189" s="18" t="s">
-        <v>913</v>
-      </c>
-      <c r="C189" s="18" t="s">
-        <v>907</v>
-      </c>
-      <c r="D189" s="18" t="s">
-        <v>956</v>
-      </c>
-      <c r="E189" s="32">
-        <v>5</v>
-      </c>
-      <c r="F189" s="18">
-        <v>7500</v>
-      </c>
-      <c r="G189" s="18">
-        <f>F190-F189</f>
-        <v>14</v>
-      </c>
-      <c r="H189" s="25" t="s">
-        <v>908</v>
-      </c>
-      <c r="I189" s="25"/>
-      <c r="J189" s="26" t="s">
-        <v>958</v>
-      </c>
-      <c r="K189" s="47" t="s">
-        <v>921</v>
-      </c>
-      <c r="L189" s="51" t="s">
-        <v>923</v>
-      </c>
-      <c r="M189" s="52" t="s">
-        <v>923</v>
-      </c>
+      <c r="I189" s="45"/>
+      <c r="J189" s="45"/>
+      <c r="K189" s="45"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190" s="24" t="s">
@@ -15299,19 +15289,28 @@
         <v>5</v>
       </c>
       <c r="F190" s="18">
-        <v>7514</v>
+        <v>7500</v>
       </c>
       <c r="G190" s="18">
-        <f t="shared" ref="G190:G233" si="5">F191-F190</f>
-        <v>68</v>
+        <f>F191-F190</f>
+        <v>14</v>
       </c>
       <c r="H190" s="25" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="I190" s="25"/>
-      <c r="J190" s="26"/>
-      <c r="K190" s="47"/>
-      <c r="L190" s="51"/>
+      <c r="J190" s="26" t="s">
+        <v>958</v>
+      </c>
+      <c r="K190" s="47" t="s">
+        <v>921</v>
+      </c>
+      <c r="L190" s="51" t="s">
+        <v>923</v>
+      </c>
+      <c r="M190" s="52" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191" s="24" t="s">
@@ -15330,28 +15329,19 @@
         <v>5</v>
       </c>
       <c r="F191" s="18">
-        <v>7582</v>
+        <v>7514</v>
       </c>
       <c r="G191" s="18">
-        <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="H191" s="19" t="s">
-        <v>908</v>
-      </c>
-      <c r="I191" s="19"/>
-      <c r="J191" s="23" t="s">
-        <v>959</v>
-      </c>
-      <c r="K191" s="48" t="s">
-        <v>921</v>
-      </c>
-      <c r="L191" s="51" t="s">
-        <v>923</v>
-      </c>
-      <c r="M191" s="52" t="s">
-        <v>923</v>
-      </c>
+        <f t="shared" ref="G191:G234" si="6">F192-F191</f>
+        <v>68</v>
+      </c>
+      <c r="H191" s="25" t="s">
+        <v>912</v>
+      </c>
+      <c r="I191" s="25"/>
+      <c r="J191" s="26"/>
+      <c r="K191" s="47"/>
+      <c r="L191" s="51"/>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192" s="24" t="s">
@@ -15370,19 +15360,28 @@
         <v>5</v>
       </c>
       <c r="F192" s="18">
-        <v>7615</v>
+        <v>7582</v>
       </c>
       <c r="G192" s="18">
-        <f t="shared" si="5"/>
-        <v>130</v>
-      </c>
-      <c r="H192" s="25" t="s">
-        <v>912</v>
-      </c>
-      <c r="I192" s="25"/>
-      <c r="J192" s="26"/>
-      <c r="K192" s="47"/>
-      <c r="L192" s="50"/>
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="H192" s="19" t="s">
+        <v>908</v>
+      </c>
+      <c r="I192" s="19"/>
+      <c r="J192" s="23" t="s">
+        <v>959</v>
+      </c>
+      <c r="K192" s="48" t="s">
+        <v>921</v>
+      </c>
+      <c r="L192" s="51" t="s">
+        <v>923</v>
+      </c>
+      <c r="M192" s="52" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193" s="24" t="s">
@@ -15401,28 +15400,19 @@
         <v>5</v>
       </c>
       <c r="F193" s="18">
-        <v>7745</v>
+        <v>7615</v>
       </c>
       <c r="G193" s="18">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H193" s="19" t="s">
-        <v>908</v>
-      </c>
-      <c r="I193" s="19"/>
-      <c r="J193" s="27" t="s">
-        <v>960</v>
-      </c>
-      <c r="K193" s="48" t="s">
-        <v>961</v>
-      </c>
-      <c r="L193" s="50" t="s">
-        <v>1000</v>
-      </c>
-      <c r="M193" s="50" t="s">
-        <v>1000</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="H193" s="25" t="s">
+        <v>912</v>
+      </c>
+      <c r="I193" s="25"/>
+      <c r="J193" s="26"/>
+      <c r="K193" s="47"/>
+      <c r="L193" s="50"/>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194" s="24" t="s">
@@ -15441,19 +15431,28 @@
         <v>5</v>
       </c>
       <c r="F194" s="18">
-        <v>7755</v>
+        <v>7745</v>
       </c>
       <c r="G194" s="18">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="H194" s="25" t="s">
-        <v>912</v>
-      </c>
-      <c r="I194" s="25"/>
-      <c r="J194" s="26"/>
-      <c r="K194" s="47"/>
-      <c r="L194" s="50"/>
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="H194" s="19" t="s">
+        <v>908</v>
+      </c>
+      <c r="I194" s="19"/>
+      <c r="J194" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="K194" s="48" t="s">
+        <v>961</v>
+      </c>
+      <c r="L194" s="50" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M194" s="50" t="s">
+        <v>1000</v>
+      </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195" s="24" t="s">
@@ -15472,27 +15471,19 @@
         <v>5</v>
       </c>
       <c r="F195" s="18">
-        <v>7758</v>
+        <v>7755</v>
       </c>
       <c r="G195" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="H195" s="17" t="s">
-        <v>908</v>
-      </c>
-      <c r="J195" s="21">
-        <v>1092</v>
-      </c>
-      <c r="K195" s="49" t="s">
-        <v>911</v>
-      </c>
-      <c r="L195" s="50" t="s">
-        <v>977</v>
-      </c>
-      <c r="M195" s="61" t="s">
-        <v>1003</v>
-      </c>
+      <c r="H195" s="25" t="s">
+        <v>912</v>
+      </c>
+      <c r="I195" s="25"/>
+      <c r="J195" s="26"/>
+      <c r="K195" s="47"/>
+      <c r="L195" s="50"/>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196" s="24" t="s">
@@ -15511,16 +15502,27 @@
         <v>5</v>
       </c>
       <c r="F196" s="18">
-        <v>7761</v>
+        <v>7758</v>
       </c>
       <c r="G196" s="18">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>912</v>
-      </c>
-      <c r="L196" s="51"/>
+        <v>908</v>
+      </c>
+      <c r="J196" s="21">
+        <v>1092</v>
+      </c>
+      <c r="K196" s="49" t="s">
+        <v>911</v>
+      </c>
+      <c r="L196" s="50" t="s">
+        <v>977</v>
+      </c>
+      <c r="M196" s="61" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197" s="24" t="s">
@@ -15539,28 +15541,16 @@
         <v>5</v>
       </c>
       <c r="F197" s="18">
-        <v>7771</v>
+        <v>7761</v>
       </c>
       <c r="G197" s="18">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="H197" s="25" t="s">
-        <v>908</v>
-      </c>
-      <c r="I197" s="25"/>
-      <c r="J197" s="26" t="s">
-        <v>962</v>
-      </c>
-      <c r="K197" s="47" t="s">
-        <v>911</v>
-      </c>
-      <c r="L197" s="50" t="s">
-        <v>977</v>
-      </c>
-      <c r="M197" s="61" t="s">
-        <v>1003</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="H197" s="17" t="s">
+        <v>912</v>
+      </c>
+      <c r="L197" s="51"/>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198" s="24" t="s">
@@ -15579,21 +15569,28 @@
         <v>5</v>
       </c>
       <c r="F198" s="18">
-        <v>7779</v>
+        <v>7771</v>
       </c>
       <c r="G198" s="18">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="H198" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I198" s="19" t="s">
-        <v>915</v>
-      </c>
-      <c r="J198" s="23"/>
-      <c r="K198" s="48"/>
-      <c r="L198" s="50"/>
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H198" s="25" t="s">
+        <v>908</v>
+      </c>
+      <c r="I198" s="25"/>
+      <c r="J198" s="26" t="s">
+        <v>962</v>
+      </c>
+      <c r="K198" s="47" t="s">
+        <v>911</v>
+      </c>
+      <c r="L198" s="50" t="s">
+        <v>977</v>
+      </c>
+      <c r="M198" s="61" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199" s="24" t="s">
@@ -15612,18 +15609,20 @@
         <v>5</v>
       </c>
       <c r="F199" s="18">
-        <v>7805</v>
+        <v>7779</v>
       </c>
       <c r="G199" s="18">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="H199" s="25" t="s">
-        <v>912</v>
-      </c>
-      <c r="I199" s="25"/>
-      <c r="J199" s="26"/>
-      <c r="K199" s="47"/>
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="H199" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I199" s="19" t="s">
+        <v>915</v>
+      </c>
+      <c r="J199" s="23"/>
+      <c r="K199" s="48"/>
       <c r="L199" s="50"/>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.35">
@@ -15643,28 +15642,19 @@
         <v>5</v>
       </c>
       <c r="F200" s="18">
-        <v>7816</v>
+        <v>7805</v>
       </c>
       <c r="G200" s="18">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>11</v>
       </c>
       <c r="H200" s="25" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="I200" s="25"/>
-      <c r="J200" s="26" t="s">
-        <v>963</v>
-      </c>
-      <c r="K200" s="47" t="s">
-        <v>911</v>
-      </c>
-      <c r="L200" s="50" t="s">
-        <v>977</v>
-      </c>
-      <c r="M200" s="61" t="s">
-        <v>1003</v>
-      </c>
+      <c r="J200" s="26"/>
+      <c r="K200" s="47"/>
+      <c r="L200" s="50"/>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201" s="24" t="s">
@@ -15683,19 +15673,28 @@
         <v>5</v>
       </c>
       <c r="F201" s="18">
-        <v>7821</v>
+        <v>7816</v>
       </c>
       <c r="G201" s="18">
-        <f t="shared" si="5"/>
-        <v>148</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="H201" s="25" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="I201" s="25"/>
-      <c r="J201" s="26"/>
-      <c r="K201" s="47"/>
-      <c r="L201" s="50"/>
+      <c r="J201" s="26" t="s">
+        <v>963</v>
+      </c>
+      <c r="K201" s="47" t="s">
+        <v>911</v>
+      </c>
+      <c r="L201" s="50" t="s">
+        <v>977</v>
+      </c>
+      <c r="M201" s="61" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202" s="24" t="s">
@@ -15714,28 +15713,19 @@
         <v>5</v>
       </c>
       <c r="F202" s="18">
-        <v>7969</v>
+        <v>7821</v>
       </c>
       <c r="G202" s="18">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>148</v>
       </c>
       <c r="H202" s="25" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="I202" s="25"/>
-      <c r="J202" s="26" t="s">
-        <v>964</v>
-      </c>
-      <c r="K202" s="47" t="s">
-        <v>910</v>
-      </c>
-      <c r="L202" s="51" t="s">
-        <v>999</v>
-      </c>
-      <c r="M202" s="62" t="s">
-        <v>1004</v>
-      </c>
+      <c r="J202" s="26"/>
+      <c r="K202" s="47"/>
+      <c r="L202" s="50"/>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203" s="24" t="s">
@@ -15754,19 +15744,28 @@
         <v>5</v>
       </c>
       <c r="F203" s="18">
-        <v>7974</v>
+        <v>7969</v>
       </c>
       <c r="G203" s="18">
-        <f t="shared" si="5"/>
-        <v>43</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="H203" s="25" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="I203" s="25"/>
-      <c r="J203" s="26"/>
-      <c r="K203" s="47"/>
-      <c r="L203" s="51"/>
+      <c r="J203" s="26" t="s">
+        <v>964</v>
+      </c>
+      <c r="K203" s="47" t="s">
+        <v>910</v>
+      </c>
+      <c r="L203" s="51" t="s">
+        <v>999</v>
+      </c>
+      <c r="M203" s="62" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204" s="24" t="s">
@@ -15785,28 +15784,19 @@
         <v>5</v>
       </c>
       <c r="F204" s="18">
-        <v>8017</v>
+        <v>7974</v>
       </c>
       <c r="G204" s="18">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>43</v>
       </c>
       <c r="H204" s="25" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="I204" s="25"/>
-      <c r="J204" s="26">
-        <v>1084</v>
-      </c>
-      <c r="K204" s="47" t="s">
-        <v>950</v>
-      </c>
-      <c r="L204" s="51" t="s">
-        <v>944</v>
-      </c>
-      <c r="M204" s="38" t="s">
-        <v>944</v>
-      </c>
+      <c r="J204" s="26"/>
+      <c r="K204" s="47"/>
+      <c r="L204" s="51"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205" s="24" t="s">
@@ -15825,19 +15815,28 @@
         <v>5</v>
       </c>
       <c r="F205" s="18">
-        <v>8020</v>
+        <v>8017</v>
       </c>
       <c r="G205" s="18">
-        <f t="shared" si="5"/>
-        <v>72</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="H205" s="25" t="s">
-        <v>912</v>
-      </c>
-      <c r="I205" s="19"/>
-      <c r="J205" s="23"/>
-      <c r="K205" s="48"/>
-      <c r="L205" s="51"/>
+        <v>908</v>
+      </c>
+      <c r="I205" s="25"/>
+      <c r="J205" s="26">
+        <v>1084</v>
+      </c>
+      <c r="K205" s="47" t="s">
+        <v>950</v>
+      </c>
+      <c r="L205" s="51" t="s">
+        <v>944</v>
+      </c>
+      <c r="M205" s="38" t="s">
+        <v>944</v>
+      </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206" s="24" t="s">
@@ -15856,28 +15855,19 @@
         <v>5</v>
       </c>
       <c r="F206" s="18">
-        <v>8092</v>
+        <v>8020</v>
       </c>
       <c r="G206" s="18">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>72</v>
       </c>
       <c r="H206" s="25" t="s">
-        <v>908</v>
-      </c>
-      <c r="I206" s="25"/>
-      <c r="J206" s="26" t="s">
-        <v>965</v>
-      </c>
-      <c r="K206" s="47" t="s">
-        <v>961</v>
-      </c>
-      <c r="L206" s="50" t="s">
-        <v>1000</v>
-      </c>
-      <c r="M206" s="50" t="s">
-        <v>1000</v>
-      </c>
+        <v>912</v>
+      </c>
+      <c r="I206" s="19"/>
+      <c r="J206" s="23"/>
+      <c r="K206" s="48"/>
+      <c r="L206" s="51"/>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207" s="24" t="s">
@@ -15896,19 +15886,28 @@
         <v>5</v>
       </c>
       <c r="F207" s="18">
-        <v>8100</v>
+        <v>8092</v>
       </c>
       <c r="G207" s="18">
-        <f>F208-F207</f>
-        <v>38</v>
-      </c>
-      <c r="H207" s="19" t="s">
-        <v>912</v>
-      </c>
-      <c r="I207" s="19"/>
-      <c r="J207" s="23"/>
-      <c r="K207" s="48"/>
-      <c r="L207" s="51"/>
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H207" s="25" t="s">
+        <v>908</v>
+      </c>
+      <c r="I207" s="25"/>
+      <c r="J207" s="26" t="s">
+        <v>965</v>
+      </c>
+      <c r="K207" s="47" t="s">
+        <v>961</v>
+      </c>
+      <c r="L207" s="50" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M207" s="50" t="s">
+        <v>1000</v>
+      </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208" s="24" t="s">
@@ -15927,28 +15926,19 @@
         <v>5</v>
       </c>
       <c r="F208" s="18">
-        <v>8138</v>
+        <v>8100</v>
       </c>
       <c r="G208" s="18">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f>F209-F208</f>
+        <v>38</v>
       </c>
       <c r="H208" s="19" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="I208" s="19"/>
-      <c r="J208" s="23">
-        <v>1081</v>
-      </c>
-      <c r="K208" s="48" t="s">
-        <v>910</v>
-      </c>
-      <c r="L208" s="51" t="s">
-        <v>999</v>
-      </c>
-      <c r="M208" s="62" t="s">
-        <v>1004</v>
-      </c>
+      <c r="J208" s="23"/>
+      <c r="K208" s="48"/>
+      <c r="L208" s="51"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209" s="24" t="s">
@@ -15967,19 +15957,28 @@
         <v>5</v>
       </c>
       <c r="F209" s="18">
-        <v>8141</v>
+        <v>8138</v>
       </c>
       <c r="G209" s="18">
-        <f t="shared" si="5"/>
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="H209" s="19" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="I209" s="19"/>
-      <c r="J209" s="23"/>
-      <c r="K209" s="48"/>
-      <c r="L209" s="51"/>
+      <c r="J209" s="23">
+        <v>1081</v>
+      </c>
+      <c r="K209" s="48" t="s">
+        <v>910</v>
+      </c>
+      <c r="L209" s="51" t="s">
+        <v>999</v>
+      </c>
+      <c r="M209" s="62" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210" s="24" t="s">
@@ -15998,18 +15997,16 @@
         <v>5</v>
       </c>
       <c r="F210" s="18">
-        <v>8169</v>
+        <v>8141</v>
       </c>
       <c r="G210" s="18">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>28</v>
       </c>
       <c r="H210" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I210" s="19" t="s">
-        <v>915</v>
-      </c>
+        <v>912</v>
+      </c>
+      <c r="I210" s="19"/>
       <c r="J210" s="23"/>
       <c r="K210" s="48"/>
       <c r="L210" s="51"/>
@@ -16031,16 +16028,18 @@
         <v>5</v>
       </c>
       <c r="F211" s="18">
-        <v>8172</v>
+        <v>8169</v>
       </c>
       <c r="G211" s="18">
-        <f t="shared" si="5"/>
-        <v>181</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="H211" s="19" t="s">
-        <v>912</v>
-      </c>
-      <c r="I211" s="19"/>
+        <v>59</v>
+      </c>
+      <c r="I211" s="19" t="s">
+        <v>915</v>
+      </c>
       <c r="J211" s="23"/>
       <c r="K211" s="48"/>
       <c r="L211" s="51"/>
@@ -16062,28 +16061,19 @@
         <v>5</v>
       </c>
       <c r="F212" s="18">
-        <v>8353</v>
+        <v>8172</v>
       </c>
       <c r="G212" s="18">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f t="shared" si="6"/>
+        <v>181</v>
       </c>
       <c r="H212" s="19" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="I212" s="19"/>
-      <c r="J212" s="23" t="s">
-        <v>966</v>
-      </c>
-      <c r="K212" s="48" t="s">
-        <v>967</v>
-      </c>
-      <c r="L212" s="51" t="s">
-        <v>998</v>
-      </c>
-      <c r="M212" s="60" t="s">
-        <v>1009</v>
-      </c>
+      <c r="J212" s="23"/>
+      <c r="K212" s="48"/>
+      <c r="L212" s="51"/>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213" s="24" t="s">
@@ -16102,19 +16092,28 @@
         <v>5</v>
       </c>
       <c r="F213" s="18">
-        <v>8376</v>
+        <v>8353</v>
       </c>
       <c r="G213" s="18">
-        <f t="shared" si="5"/>
-        <v>63</v>
-      </c>
-      <c r="H213" s="25" t="s">
-        <v>912</v>
-      </c>
-      <c r="I213" s="25"/>
-      <c r="J213" s="26"/>
-      <c r="K213" s="47"/>
-      <c r="L213" s="50"/>
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="H213" s="19" t="s">
+        <v>908</v>
+      </c>
+      <c r="I213" s="19"/>
+      <c r="J213" s="23" t="s">
+        <v>966</v>
+      </c>
+      <c r="K213" s="48" t="s">
+        <v>967</v>
+      </c>
+      <c r="L213" s="51" t="s">
+        <v>998</v>
+      </c>
+      <c r="M213" s="60" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214" s="24" t="s">
@@ -16133,14 +16132,14 @@
         <v>5</v>
       </c>
       <c r="F214" s="18">
-        <v>8439</v>
+        <v>8376</v>
       </c>
       <c r="G214" s="18">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>63</v>
       </c>
       <c r="H214" s="25" t="s">
-        <v>55</v>
+        <v>912</v>
       </c>
       <c r="I214" s="25"/>
       <c r="J214" s="26"/>
@@ -16164,14 +16163,14 @@
         <v>5</v>
       </c>
       <c r="F215" s="18">
-        <v>8440</v>
+        <v>8439</v>
       </c>
       <c r="G215" s="18">
-        <f t="shared" si="5"/>
-        <v>149</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="H215" s="25" t="s">
-        <v>912</v>
+        <v>55</v>
       </c>
       <c r="I215" s="25"/>
       <c r="J215" s="26"/>
@@ -16195,20 +16194,18 @@
         <v>5</v>
       </c>
       <c r="F216" s="18">
-        <v>8589</v>
+        <v>8440</v>
       </c>
       <c r="G216" s="18">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="H216" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I216" s="19" t="s">
-        <v>915</v>
-      </c>
-      <c r="J216" s="23"/>
-      <c r="K216" s="48"/>
+        <f t="shared" si="6"/>
+        <v>149</v>
+      </c>
+      <c r="H216" s="25" t="s">
+        <v>912</v>
+      </c>
+      <c r="I216" s="25"/>
+      <c r="J216" s="26"/>
+      <c r="K216" s="47"/>
       <c r="L216" s="50"/>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.35">
@@ -16228,19 +16225,21 @@
         <v>5</v>
       </c>
       <c r="F217" s="18">
-        <v>8596</v>
+        <v>8589</v>
       </c>
       <c r="G217" s="18">
-        <f t="shared" si="5"/>
-        <v>346</v>
-      </c>
-      <c r="H217" s="25" t="s">
-        <v>912</v>
-      </c>
-      <c r="I217" s="25"/>
-      <c r="J217" s="26"/>
-      <c r="K217" s="47"/>
-      <c r="L217" s="51"/>
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H217" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I217" s="19" t="s">
+        <v>915</v>
+      </c>
+      <c r="J217" s="23"/>
+      <c r="K217" s="48"/>
+      <c r="L217" s="50"/>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218" s="24" t="s">
@@ -16259,19 +16258,19 @@
         <v>5</v>
       </c>
       <c r="F218" s="18">
-        <v>8942</v>
+        <v>8596</v>
       </c>
       <c r="G218" s="18">
-        <f>F219-F218</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>346</v>
       </c>
       <c r="H218" s="25" t="s">
-        <v>55</v>
+        <v>912</v>
       </c>
       <c r="I218" s="25"/>
       <c r="J218" s="26"/>
       <c r="K218" s="47"/>
-      <c r="L218" s="50"/>
+      <c r="L218" s="51"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219" s="24" t="s">
@@ -16290,19 +16289,19 @@
         <v>5</v>
       </c>
       <c r="F219" s="18">
-        <v>8948</v>
+        <v>8942</v>
       </c>
       <c r="G219" s="18">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="H219" s="19" t="s">
-        <v>912</v>
-      </c>
-      <c r="I219" s="19"/>
-      <c r="J219" s="23"/>
-      <c r="K219" s="48"/>
-      <c r="L219" s="51"/>
+        <f>F220-F219</f>
+        <v>6</v>
+      </c>
+      <c r="H219" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I219" s="25"/>
+      <c r="J219" s="26"/>
+      <c r="K219" s="47"/>
+      <c r="L219" s="50"/>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220" s="24" t="s">
@@ -16321,28 +16320,19 @@
         <v>5</v>
       </c>
       <c r="F220" s="18">
-        <v>8982</v>
+        <v>8948</v>
       </c>
       <c r="G220" s="18">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="H220" s="25" t="s">
-        <v>908</v>
-      </c>
-      <c r="I220" s="25"/>
-      <c r="J220" s="26" t="s">
-        <v>968</v>
-      </c>
-      <c r="K220" s="47" t="s">
-        <v>926</v>
-      </c>
-      <c r="L220" s="50" t="s">
-        <v>983</v>
-      </c>
-      <c r="M220" s="50" t="s">
-        <v>983</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="H220" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="I220" s="19"/>
+      <c r="J220" s="23"/>
+      <c r="K220" s="48"/>
+      <c r="L220" s="51"/>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221" s="24" t="s">
@@ -16361,19 +16351,28 @@
         <v>5</v>
       </c>
       <c r="F221" s="18">
-        <v>8987</v>
+        <v>8982</v>
       </c>
       <c r="G221" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="H221" s="19" t="s">
-        <v>912</v>
-      </c>
-      <c r="I221" s="19"/>
-      <c r="J221" s="23"/>
-      <c r="K221" s="48"/>
-      <c r="L221" s="51"/>
+      <c r="H221" s="25" t="s">
+        <v>908</v>
+      </c>
+      <c r="I221" s="25"/>
+      <c r="J221" s="26" t="s">
+        <v>968</v>
+      </c>
+      <c r="K221" s="47" t="s">
+        <v>926</v>
+      </c>
+      <c r="L221" s="50" t="s">
+        <v>983</v>
+      </c>
+      <c r="M221" s="50" t="s">
+        <v>983</v>
+      </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222" s="24" t="s">
@@ -16392,28 +16391,19 @@
         <v>5</v>
       </c>
       <c r="F222" s="18">
-        <v>8992</v>
+        <v>8987</v>
       </c>
       <c r="G222" s="18">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="H222" s="25" t="s">
-        <v>908</v>
-      </c>
-      <c r="I222" s="25"/>
-      <c r="J222" s="26">
-        <v>176</v>
-      </c>
-      <c r="K222" s="47" t="s">
-        <v>969</v>
-      </c>
-      <c r="L222" s="50" t="s">
-        <v>997</v>
-      </c>
-      <c r="M222" s="60" t="s">
-        <v>1006</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H222" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="I222" s="19"/>
+      <c r="J222" s="23"/>
+      <c r="K222" s="48"/>
+      <c r="L222" s="51"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223" s="24" t="s">
@@ -16432,19 +16422,28 @@
         <v>5</v>
       </c>
       <c r="F223" s="18">
-        <v>8994</v>
+        <v>8992</v>
       </c>
       <c r="G223" s="18">
-        <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="H223" s="19" t="s">
-        <v>912</v>
-      </c>
-      <c r="I223" s="19"/>
-      <c r="J223" s="23"/>
-      <c r="K223" s="48"/>
-      <c r="L223" s="51"/>
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H223" s="25" t="s">
+        <v>908</v>
+      </c>
+      <c r="I223" s="25"/>
+      <c r="J223" s="26">
+        <v>176</v>
+      </c>
+      <c r="K223" s="47" t="s">
+        <v>969</v>
+      </c>
+      <c r="L223" s="50" t="s">
+        <v>997</v>
+      </c>
+      <c r="M223" s="60" t="s">
+        <v>1006</v>
+      </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224" s="24" t="s">
@@ -16463,19 +16462,19 @@
         <v>5</v>
       </c>
       <c r="F224" s="18">
-        <v>9058</v>
+        <v>8994</v>
       </c>
       <c r="G224" s="18">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="H224" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="I224" s="25"/>
-      <c r="J224" s="26"/>
-      <c r="K224" s="47"/>
-      <c r="L224" s="50"/>
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="H224" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="I224" s="19"/>
+      <c r="J224" s="23"/>
+      <c r="K224" s="48"/>
+      <c r="L224" s="51"/>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225" s="24" t="s">
@@ -16494,19 +16493,19 @@
         <v>5</v>
       </c>
       <c r="F225" s="18">
-        <v>9062</v>
+        <v>9058</v>
       </c>
       <c r="G225" s="18">
-        <f t="shared" si="5"/>
-        <v>106</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="H225" s="25" t="s">
-        <v>912</v>
+        <v>55</v>
       </c>
       <c r="I225" s="25"/>
       <c r="J225" s="26"/>
       <c r="K225" s="47"/>
-      <c r="L225" s="51"/>
+      <c r="L225" s="50"/>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226" s="24" t="s">
@@ -16525,28 +16524,19 @@
         <v>5</v>
       </c>
       <c r="F226" s="18">
-        <v>9168</v>
+        <v>9062</v>
       </c>
       <c r="G226" s="18">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>106</v>
       </c>
       <c r="H226" s="25" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="I226" s="25"/>
-      <c r="J226" s="26" t="s">
-        <v>970</v>
-      </c>
-      <c r="K226" s="47" t="s">
-        <v>911</v>
-      </c>
-      <c r="L226" s="50" t="s">
-        <v>977</v>
-      </c>
-      <c r="M226" s="61" t="s">
-        <v>1003</v>
-      </c>
+      <c r="J226" s="26"/>
+      <c r="K226" s="47"/>
+      <c r="L226" s="51"/>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227" s="24" t="s">
@@ -16565,19 +16555,28 @@
         <v>5</v>
       </c>
       <c r="F227" s="18">
-        <v>9173</v>
+        <v>9168</v>
       </c>
       <c r="G227" s="18">
-        <f t="shared" si="5"/>
-        <v>46</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="H227" s="25" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="I227" s="25"/>
-      <c r="J227" s="26"/>
-      <c r="K227" s="47"/>
-      <c r="L227" s="51"/>
+      <c r="J227" s="26" t="s">
+        <v>970</v>
+      </c>
+      <c r="K227" s="47" t="s">
+        <v>911</v>
+      </c>
+      <c r="L227" s="50" t="s">
+        <v>977</v>
+      </c>
+      <c r="M227" s="61" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228" s="24" t="s">
@@ -16596,28 +16595,19 @@
         <v>5</v>
       </c>
       <c r="F228" s="18">
-        <v>9219</v>
+        <v>9173</v>
       </c>
       <c r="G228" s="18">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>46</v>
       </c>
       <c r="H228" s="25" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="I228" s="25"/>
-      <c r="J228" s="26" t="s">
-        <v>971</v>
-      </c>
-      <c r="K228" s="47" t="s">
-        <v>911</v>
-      </c>
-      <c r="L228" s="50" t="s">
-        <v>977</v>
-      </c>
-      <c r="M228" s="61" t="s">
-        <v>1003</v>
-      </c>
+      <c r="J228" s="26"/>
+      <c r="K228" s="47"/>
+      <c r="L228" s="51"/>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229" s="24" t="s">
@@ -16636,19 +16626,28 @@
         <v>5</v>
       </c>
       <c r="F229" s="18">
-        <v>9221</v>
+        <v>9219</v>
       </c>
       <c r="G229" s="18">
-        <f t="shared" si="5"/>
-        <v>133</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="H229" s="25" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="I229" s="25"/>
-      <c r="J229" s="26"/>
-      <c r="K229" s="47"/>
-      <c r="L229" s="51"/>
+      <c r="J229" s="26" t="s">
+        <v>971</v>
+      </c>
+      <c r="K229" s="47" t="s">
+        <v>911</v>
+      </c>
+      <c r="L229" s="50" t="s">
+        <v>977</v>
+      </c>
+      <c r="M229" s="61" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230" s="24" t="s">
@@ -16667,19 +16666,19 @@
         <v>5</v>
       </c>
       <c r="F230" s="18">
-        <v>9354</v>
+        <v>9221</v>
       </c>
       <c r="G230" s="18">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>133</v>
       </c>
       <c r="H230" s="25" t="s">
-        <v>55</v>
+        <v>912</v>
       </c>
       <c r="I230" s="25"/>
       <c r="J230" s="26"/>
       <c r="K230" s="47"/>
-      <c r="L230" s="50"/>
+      <c r="L230" s="51"/>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231" s="24" t="s">
@@ -16698,19 +16697,19 @@
         <v>5</v>
       </c>
       <c r="F231" s="18">
-        <v>9364</v>
+        <v>9354</v>
       </c>
       <c r="G231" s="18">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="H231" s="25" t="s">
-        <v>912</v>
+        <v>55</v>
       </c>
       <c r="I231" s="25"/>
       <c r="J231" s="26"/>
       <c r="K231" s="47"/>
-      <c r="L231" s="51"/>
+      <c r="L231" s="50"/>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232" s="24" t="s">
@@ -16729,19 +16728,19 @@
         <v>5</v>
       </c>
       <c r="F232" s="18">
-        <v>9370</v>
+        <v>9364</v>
       </c>
       <c r="G232" s="18">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="H232" s="25" t="s">
-        <v>55</v>
+        <v>912</v>
       </c>
       <c r="I232" s="25"/>
       <c r="J232" s="26"/>
       <c r="K232" s="47"/>
-      <c r="L232" s="50"/>
+      <c r="L232" s="51"/>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233" s="24" t="s">
@@ -16760,19 +16759,19 @@
         <v>5</v>
       </c>
       <c r="F233" s="18">
-        <v>9375</v>
+        <v>9370</v>
       </c>
       <c r="G233" s="18">
-        <f t="shared" si="5"/>
-        <v>125</v>
-      </c>
-      <c r="H233" s="19" t="s">
-        <v>912</v>
-      </c>
-      <c r="I233" s="19"/>
-      <c r="J233" s="23"/>
-      <c r="K233" s="48"/>
-      <c r="L233" s="51"/>
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H233" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I233" s="25"/>
+      <c r="J233" s="26"/>
+      <c r="K233" s="47"/>
+      <c r="L233" s="50"/>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234" s="24" t="s">
@@ -16790,24 +16789,55 @@
       <c r="E234" s="32">
         <v>5</v>
       </c>
-      <c r="F234" s="22">
+      <c r="F234" s="18">
+        <v>9375</v>
+      </c>
+      <c r="G234" s="18">
+        <f t="shared" si="6"/>
+        <v>125</v>
+      </c>
+      <c r="H234" s="19" t="s">
+        <v>912</v>
+      </c>
+      <c r="I234" s="19"/>
+      <c r="J234" s="23"/>
+      <c r="K234" s="48"/>
+      <c r="L234" s="51"/>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A235" s="24" t="s">
+        <v>957</v>
+      </c>
+      <c r="B235" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="C235" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="D235" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="E235" s="32">
+        <v>5</v>
+      </c>
+      <c r="F235" s="22">
         <v>9500</v>
       </c>
-      <c r="G234" s="18"/>
-      <c r="H234" s="25"/>
-      <c r="I234" s="25"/>
-      <c r="J234" s="26"/>
-      <c r="K234" s="47"/>
-      <c r="L234" s="50"/>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="G235" s="18">
-        <f>SUM(G2:G234)</f>
-        <v>9930</v>
+      <c r="G235" s="18"/>
+      <c r="H235" s="25"/>
+      <c r="I235" s="25"/>
+      <c r="J235" s="26"/>
+      <c r="K235" s="47"/>
+      <c r="L235" s="50"/>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G236" s="18">
+        <f>SUM(G2:G235)</f>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T235" xr:uid="{E32ACF45-1CEC-4F5E-9527-E8058A3B821B}"/>
+  <autoFilter ref="A1:T236" xr:uid="{E32ACF45-1CEC-4F5E-9527-E8058A3B821B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
